--- a/inst/project/Admin/faculty.xlsx
+++ b/inst/project/Admin/faculty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1684bc3b7bd79ed3/Projects/omueconMatch/inst/samples/Data4Test1/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenjisato/Data4Test1/Admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{6CB48D5E-F43F-A344-AB04-6F15F8BA8081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9390217D-224C-7148-9719-A25F4384B464}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C065CA-F269-3F46-984F-C12F3220152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="740" windowWidth="17900" windowHeight="17040" xr2:uid="{56E0F391-1520-9245-91B6-31950EE167B6}"/>
+    <workbookView xWindow="3560" yWindow="760" windowWidth="17900" windowHeight="17040" xr2:uid="{56E0F391-1520-9245-91B6-31950EE167B6}"/>
   </bookViews>
   <sheets>
     <sheet name="対象学生一覧" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>教員名</t>
+  </si>
+  <si>
+    <t>授業コード</t>
+  </si>
+  <si>
+    <t>abcA</t>
+  </si>
+  <si>
+    <t>abcB</t>
+  </si>
+  <si>
+    <t>abcC</t>
   </si>
 </sst>
 </file>
@@ -115,9 +127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,7 +415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,44 +423,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF8D1B5-48A9-5240-88C9-2CE6D0F778F4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
